--- a/hotels_list.xlsx
+++ b/hotels_list.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4513,7 +4513,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G102" s="3" t="n">
+      <c r="G102" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H102" t="inlineStr">
@@ -4553,7 +4553,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G103" s="3" t="n">
+      <c r="G103" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H103" t="inlineStr">
@@ -4593,7 +4593,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G104" s="3" t="n">
+      <c r="G104" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H104" t="inlineStr">
@@ -4633,7 +4633,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G105" s="3" t="n">
+      <c r="G105" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H105" t="inlineStr">
@@ -4673,7 +4673,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G106" s="3" t="n">
+      <c r="G106" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H106" t="inlineStr">
@@ -4713,7 +4713,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G107" s="3" t="n">
+      <c r="G107" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H107" t="inlineStr">
@@ -4753,7 +4753,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G108" s="3" t="n">
+      <c r="G108" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H108" t="inlineStr">
@@ -4793,7 +4793,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G109" s="3" t="n">
+      <c r="G109" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H109" t="inlineStr">
@@ -4833,7 +4833,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G110" s="3" t="n">
+      <c r="G110" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H110" t="inlineStr">
@@ -4873,7 +4873,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G111" s="3" t="n">
+      <c r="G111" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H111" t="inlineStr">
@@ -4913,7 +4913,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G112" s="3" t="n">
+      <c r="G112" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H112" t="inlineStr">
@@ -4953,7 +4953,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G113" s="3" t="n">
+      <c r="G113" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H113" t="inlineStr">
@@ -4993,7 +4993,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G114" s="3" t="n">
+      <c r="G114" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H114" t="inlineStr">
@@ -5033,7 +5033,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G115" s="3" t="n">
+      <c r="G115" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H115" t="inlineStr">
@@ -5073,7 +5073,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G116" s="3" t="n">
+      <c r="G116" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H116" t="inlineStr">
@@ -5113,7 +5113,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G117" s="3" t="n">
+      <c r="G117" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H117" t="inlineStr">
@@ -5153,7 +5153,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G118" s="3" t="n">
+      <c r="G118" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H118" t="inlineStr">
@@ -5193,7 +5193,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G119" s="3" t="n">
+      <c r="G119" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H119" t="inlineStr">
@@ -5233,7 +5233,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G120" s="3" t="n">
+      <c r="G120" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H120" t="inlineStr">
@@ -5273,7 +5273,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G121" s="3" t="n">
+      <c r="G121" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H121" t="inlineStr">
@@ -5313,7 +5313,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G122" s="3" t="n">
+      <c r="G122" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H122" t="inlineStr">
@@ -5353,7 +5353,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G123" s="3" t="n">
+      <c r="G123" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H123" t="inlineStr">
@@ -5393,7 +5393,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G124" s="3" t="n">
+      <c r="G124" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H124" t="inlineStr">
@@ -5433,7 +5433,7 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G125" s="3" t="n">
+      <c r="G125" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H125" t="inlineStr">
@@ -5473,10 +5473,8010 @@
           <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
         </is>
       </c>
-      <c r="G126" s="3" t="n">
+      <c r="G126" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="H126" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>La Madriguera</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>COP 144.000</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>['8,7']</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>['554 comentarios']</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Hotel Guatatur</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>COP 119.000</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>['8,2']</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>['294 comentarios']</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>AW Guatape Glamping Resort</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>COP 181.740</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>['8,0']</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>['360 comentarios']</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Lake View Hostel</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>COP 40.000</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>['761 comentarios']</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Aptos Jardines del Lago 8B201</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>COP 127.460</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Hotel Verony Guatape</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>COP 270.000</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>['762 comentarios']</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oak Tree house</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>COP 100.000</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>['1.246 comentarios']</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Aptos Jardines del Lago 4B101</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>COP 127.460</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Ibuku</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>COP 675.000</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Aptos Jardines del Lago 14B201</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>COP 127.460</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Aptos Jardines del Lago 15B102</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>COP 127.460</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Jordan Hotel Boutique</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>COP 388.680</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>['275 comentarios']</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Hotel Mumu Guatapé</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>COP 290.000</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>['431 comentarios']</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>La Pausa Hotelbistro</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>COP 575.000</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>['21 comentarios']</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>VOLARE Experience</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>COP 98.180</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>['2 comentarios']</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Casa Encuentro Ecolodge</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>COP 101.500</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>['8,8']</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>['253 comentarios']</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>GRETEL CHALETS SUIZO</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>COP 350.920</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>['4 comentarios']</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Artesanos y Turistas</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>COP 35.000</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>['8,7']</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>['85 comentarios']</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Soy Local Guatape</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>COP 144.000</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>['2.328 comentarios']</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hotel Los Recuerdos</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>COP 450.000</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>['1.754 comentarios']</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hotel Mansión Guatapé</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>COP 260.000</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>['7,7']</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>['Bien']</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>['720 comentarios']</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>The Boato Hotel</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>COP 791.220</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>['867 comentarios']</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>El Trebol</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>COP 294.000</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>['207 comentarios']</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Casa finca típica the lake hotel</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>COP 55.000</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>['44 comentarios']</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hotel Bahia Guatape</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>COP 170.000</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>['8,8']</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>['169 comentarios']</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=0</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Soy Local Guatape</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>COP 144.000</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>['2.328 comentarios']</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Casa Hotel Los Embalses</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>COP 60.000</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>['133 comentarios']</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>AB Natural Reserve Lifestyle Hotel</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>COP 421.200</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>['9,6']</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>['16 comentarios']</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G154" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Tau House</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>COP 639.120</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>['130 comentarios']</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G155" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Balcones de la Casona</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>COP 150.000</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>['276 comentarios']</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Casa Encuentro Ecolodge</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>COP 101.500</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>['8,8']</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>['253 comentarios']</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Hotel Le Chateau Guatape</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>COP 120.000</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>['77 comentarios']</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Ecolodge Bahia del Peñón</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>COP 300.000</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>['514 comentarios']</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guatapé Country House Hotel</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>COP 165.000</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>['127 comentarios']</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Arvum Hotel Boutique</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>COP 541.880</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>['2 comentarios']</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Hermosa casa de campo en GUATAPÉ</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>COP 293.320</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>['70 comentarios']</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>casa hostal las palmeras</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>COP 63.000</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>['9,1']</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>['367 comentarios']</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Aptos Jardines del Lago 4B101</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>COP 127.460</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G164" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Hotel Zocalo Campestre</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>COP 271.020</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>['9,1']</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>['347 comentarios']</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G165" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>El Espume de San Juan by JR</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>COP 864.000</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>['8,8']</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>['25 comentarios']</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G166" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Hotel Santorini</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>COP 320.000</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>['891 comentarios']</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G167" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Ibuku</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>COP 675.000</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G168" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>GRETEL CHALETS SUIZO</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>COP 350.920</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>['4 comentarios']</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Descanso Bajo La Piedra Del Peñol</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>COP 177.800</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>['27 comentarios']</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>MURAT HOTEL</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>COP 550.000</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>['23 comentarios']</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Glamping The Mountain</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>COP 750.000</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>['9,1']</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>['70 comentarios']</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Cabañas Refugio Himalaya</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>COP 450.000</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>['26 comentarios']</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Celeste Glamping Guatapé</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>COP 882.180</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>['9,6']</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>['83 comentarios']</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>La Quinta Dimensión Glamping</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>COP 460.000</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>['96 comentarios']</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Sotavento Cabañas</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>COP 563.500</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>['148 comentarios']</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=25</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Colors Fantasy Hostel</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>COP 19.800</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>['6,9']</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>['Puntuación']</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>['39 comentarios']</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Descanso Bajo La Piedra Del Peñol</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>COP 177.800</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>['27 comentarios']</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Tau House</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>COP 639.120</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>['130 comentarios']</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Duplex Familiar Apartment Birds</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>COP 234.000</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Serendipity Hospedaje Boutique</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>COP 360.000</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>['239 comentarios']</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guatapé Country House Hotel</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>COP 165.000</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>['127 comentarios']</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Finca Blue Bay</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>COP 1.500.000</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Vivienda Turística El Horizonte</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>COP 56.700</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>['322 comentarios']</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Glamping The Mountain</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>COP 750.000</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>['9,1']</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>['70 comentarios']</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hospedaje Guatape</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>COP 75.000</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>['410 comentarios']</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Hotel Santa Maria de las Aguas Peñol</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>COP 326.400</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>['8,0']</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>['1.907 comentarios']</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Casa Lucía - Guatapé</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>COP 105.000</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>['9,6']</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>['61 comentarios']</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>La Martinera Malecon</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>COP 162.400</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>['284 comentarios']</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hotel Verony Guatape</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>COP 270.000</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>['762 comentarios']</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Finca Hotel Paraiso Guatapé El Peñol</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>COP 125.000</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>['9,1']</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>['34 comentarios']</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hotel Santorini</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>COP 320.000</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>['891 comentarios']</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>ATARDECER</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>COP 2.300.000</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G193" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Balcones de la Casona</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>COP 150.000</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>['276 comentarios']</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G194" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Apartamento Familiar 1er piso Guatapé</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>COP 237.500</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G195" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Bacoa Hostel</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>COP 50.000</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>['152 comentarios']</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G196" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Apartaestudio vista y acceso al lago, Guatape. Ant</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>COP 227.700</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G197" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Hermosa casa de campo en GUATAPÉ</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>COP 293.320</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>['70 comentarios']</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>VIVIENDA TURÍSTICA EL ZÓCALO</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>COP 120.000</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>['95 comentarios']</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Luxe by The Charlee</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>COP 517.500</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>['858 comentarios']</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G200" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Hotel Bambu</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>COP 153.000</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>['90 comentarios']</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=50</t>
+        </is>
+      </c>
+      <c r="G201" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Hotel Bambu</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>COP 153.000</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>['90 comentarios']</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G202" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>La Martinera Avenida</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>COP 141.620</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>['179 comentarios']</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G203" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Sotavento Cabañas</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>COP 563.500</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>['148 comentarios']</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G204" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>La Martinera Parque Central</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>COP 162.400</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>['8,8']</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>['318 comentarios']</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G205" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Bosko</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>COP 1.193.300</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>['242 comentarios']</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G206" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Casa Dodo Guatapé</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>COP 219.380</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>['258 comentarios']</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>CASA GARCIA RENT HOME</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>COP 157.440</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>['7,6']</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>['Bien']</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>['7 comentarios']</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Hotel La Magdalena Adult Only</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>COP 420.000</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>['8,7']</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>['432 comentarios']</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>La Casona Hostel</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>COP 36.000</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>['217 comentarios']</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>MURAT HOTEL</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>COP 550.000</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>['23 comentarios']</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Escape vacacional frente al Malecón</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>COP 166.600</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Paradise Lake Hotel</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>COP 267.300</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>['165 comentarios']</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>el nuevo guatape campestre a 5 minutos del malecon y 10 minutos la piedra totalmente nuevos parqueo privado</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>COP 189.000</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>['71 comentarios']</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Celeste Glamping Guatapé</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>COP 882.180</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>['9,6']</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>['83 comentarios']</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Apartamento en Guatapé</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>COP 246.500</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>['8 comentarios']</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Apartamento con vista al embalse</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>COP 154.000</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>['8,7']</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>['11 comentarios']</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Apartamento parque principal</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>COP 175.000</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>['6 comentarios']</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Chalet de Liz</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>COP 220.000</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>['9,9']</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>['17 comentarios']</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Linda casa con espectacular vista embalse y piedra</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>COP 272.000</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>['15 comentarios']</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>El Mirador de Guatapé APTO</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>COP 96.000</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>['37 comentarios']</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>La posada de uva</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>COP 125.560</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>['8,7']</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>['3 comentarios']</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Apartamento en Guatapé cerca al malecón</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>COP 226.800</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>['1 comentario']</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Domus Glamping</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>COP 773.500</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>['123 comentarios']</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Apartamento de Guatapé</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>COP 200.000</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>['87 comentarios']</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Adriana's Bambu-Lodge</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>COP 280.000</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>['118 comentarios']</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=75</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Noches de Guatapulco</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>COP 157.440</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>['7 comentarios']</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Cabaña Curazao</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>COP 525.000</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Casa Roja Parche Campestre - Hospedaje Guatapé</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>COP 108.000</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>['66 comentarios']</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G229" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Habitación Guatapé calle jimenez</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>COP 81.000</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Unique Glamping / Domo Betsaida</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>COP 494.260</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>['9,9']</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>['15 comentarios']</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Apartamento Parque Principal Guatapé</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>COP 143.000</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>['2 comentarios']</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Levit Glamping - Hotel Guatapé ADULTS ONLY</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>COP 728.000</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>['89 comentarios']</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Casa en medio del campo de guatape</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>COP 245.000</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>['6 comentarios']</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Apartamento Parque Guatapé con vista al embalse WIFI y TV</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>COP 259.000</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>['9,6']</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>['43 comentarios']</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hotel Familiar El Remanso Del Agua</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>COP 225.000</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>La Martinera Las Palmas</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>COP 138.040</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>['22 comentarios']</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Glamping Montecarlo Domo Geodesico Guatapé</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>COP 450.000</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>['9,9']</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>['8 comentarios']</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Los Patos By Hope</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>COP 192.000</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>['7 comentarios']</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G239" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Apartamento Malecón Guatapé</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>COP 300.000</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>['6 comentarios']</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Apartamento guatape</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>COP 93.600</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>['80 comentarios']</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>HOTEL BLUE GUATAPE</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>COP 112.320</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>['20 comentarios']</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G242" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Villa MagmaHome</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>COP 400.000</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>['3 comentarios']</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G243" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>La Quinta Dimensión Glamping</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>COP 460.000</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>['96 comentarios']</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G244" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Apartamento Plazoleta de Colores</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>COP 128.520</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>['26 comentarios']</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G245" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Armonia Guatape</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>COP 208.800</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>['2 comentarios']</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G246" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guatape View Apartments</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>COP 240.000</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>['45 comentarios']</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G247" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>La Martinera Colina View</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>COP 290.000</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>['20 comentarios']</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G248" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>El Mirador De Guatapé 2</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>COP 84.000</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>['7,7']</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>['Bien']</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G249" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Cabañas Refugio Himalaya</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>COP 450.000</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>['26 comentarios']</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Duplex By Hope</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>COP 208.000</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>['11 comentarios']</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=100</t>
+        </is>
+      </c>
+      <c r="G251" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Duplex By Hope</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>COP 208.000</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>['11 comentarios']</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>La Martinera Las Palmas</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>COP 138.040</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>['22 comentarios']</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Noches de Guatapulco</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>COP 157.440</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>['7 comentarios']</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Apartamento GUATAPE</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>COP 208.000</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>['5 comentarios']</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Chalet de Liz</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>COP 220.000</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>['9,9']</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>['17 comentarios']</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>En Casa - Apto 2</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>COP 156.000</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>['13 comentarios']</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Finca-Hotel Montecarlo by Hope</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>COP 1.100.000</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>['1 comentario']</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Glamping en Guatape con Jacuzzy</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>COP 1.358.000</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Balcones de la pradera by Hope</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>COP 336.000</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>['30 comentarios']</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G260" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>La pradera apartment by Hope</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>COP 420.000</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>['30 comentarios']</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G261" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Apartamento Malecón Guatapé</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>COP 300.000</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>['6 comentarios']</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>CASA- CABAÑA EL ROBLEDAL Guatape</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>COP 150.000</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>['7 comentarios']</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>La Martinera 26, Apartamento moderno, ubicación perfecta</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>COP 226.200</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>['38 comentarios']</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>GUATAPÉ Apartamento Amoblado Balcones</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>COP 300.000</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>['7,6']</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>['Bien']</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>['18 comentarios']</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>La Martinera Calle Comercio</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>COP 203.000</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>['8,0']</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>['4 comentarios']</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G266" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Finca Hotel Paraiso Guatapé El Peñol</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>COP 125.000</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>['9,1']</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>['34 comentarios']</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G267" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>BERAKHAH SPA &amp; ROOMS</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>COP 478.520</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>['7 comentarios']</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G268" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Hotel Bania travels</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>COP 198.000</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>['2 comentarios']</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G269" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>La Martinera Colina View</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>COP 290.000</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>['20 comentarios']</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G270" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Hope apartment</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>COP 255.000</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>['76 comentarios']</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G271" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Guatapé Apartamento vista al embalse</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>COP 130.000</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G272" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Cabaña - Guatapé -Rancho verde</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>COP 440.000</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>['9,9']</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>['13 comentarios']</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G273" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Habitación Guatapé calle jimenez</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>COP 81.000</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>vista piedra</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>COP 172.500</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>['36 comentarios']</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Apartamento La Esperanza Guatapé</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>COP 294.000</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>['11 comentarios']</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=125</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Cabaña - Guatapé -Rancho verde</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>COP 440.000</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>['9,9']</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>['13 comentarios']</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Habitación Guatapé calle jimenez</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>COP 81.000</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>vista piedra</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>COP 172.500</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>['36 comentarios']</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Apartamento La Esperanza Guatapé</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>COP 294.000</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>['11 comentarios']</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>VIVIENDA TURÍSTICA EL ZÓCALO</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>COP 120.000</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>['95 comentarios']</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Apartamento de Guatapé</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>COP 200.000</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>['8,5']</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>['87 comentarios']</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>El Mirador de Guatapé APTO</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>COP 96.000</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>['8,6']</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>['37 comentarios']</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Casa Quinta Guatape</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>COP 300.000</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G284" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>CASA DE CAMPO MONTECARLO Guatape- desayuno a pareja</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>COP 630.000</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>['23 comentarios']</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G285" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>La Casa de Piedra</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>COP 690.000</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>['35 comentarios']</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G286" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Cabaña El Roble</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>COP 319.000</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>['7,9']</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>['Bien']</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>['15 comentarios']</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G287" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Adriana's Bambu-Lodge</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>COP 280.000</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>['118 comentarios']</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Nomada Hostel</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>COP 60.000</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>['3,0']</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>['Puntuación']</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>['1 comentario']</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G289" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Cabañas el Retorno</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>COP 500.000</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>['9,7']</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>['54 comentarios']</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G290" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Hotel Familiar El Remanso Del Agua</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>COP 225.000</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>['31 comentarios']</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G291" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Bacoa Hostel</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>COP 50.000</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>['9,2']</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>['152 comentarios']</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G292" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Apartamento guatape</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>COP 93.600</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>['80 comentarios']</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G293" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>HOTEL BLUE GUATAPE</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>COP 112.320</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>['20 comentarios']</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G294" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Apartamento en Guatapé</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>COP 237.600</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G295" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Apartamento Familiar 1er piso Guatapé</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>COP 237.500</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G296" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>FINCA MONARCA</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>COP 2.499.000</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>['8,0']</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>['1 comentario']</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G297" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Hermoso y amplio apartamento en Guatapé</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>COP 180.900</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>['3 comentarios']</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G298" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Apartaestudio vista y acceso al lago, Guatape. Ant</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>COP 227.700</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G299" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Armonia Guatape</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>COP 208.800</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>['2 comentarios']</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G300" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Lindo apartamento en Guatapé</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>COP 121.280</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>['4 comentarios']</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=150</t>
+        </is>
+      </c>
+      <c r="G301" s="2" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Casa Julita Guatapé</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>COP 422.500</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G302" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>BERAKHAH SPA &amp; ROOMS</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>COP 478.520</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>['8,4']</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>['7 comentarios']</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G303" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Cabaña Curazao</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>COP 540.000</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G304" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>El Mirador De Guatape 1</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>COP 200.000</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>['9,0']</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>['8 comentarios']</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G305" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Apartamento La Esperanza Guatapé</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>COP 294.000</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>['11 comentarios']</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G306" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Cabaña El Roble</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>COP 319.000</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>['7,9']</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>['Bien']</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>['15 comentarios']</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G307" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Alojamiento Cabaña El Peñol, cerca Piedra, Guatapé</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>COP 240.000</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G308" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Cabañas con represa y glamping peñol y Guatapé - Cabaña 2</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>COP 342.640</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>['14 comentarios']</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G309" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Jardines By Hope</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>COP 270.000</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>['5 comentarios']</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G310" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Los Naranjos Guatapé</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>COP 399.000</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G311" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Vista montaña by Hope</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>COP 244.800</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>['9,1']</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>['27 comentarios']</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G312" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Cabaña - Guatapé -Rancho verde</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>COP 440.000</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>['9,9']</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>['13 comentarios']</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G313" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Guatape Malecon Apartment</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>COP 220.000</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>['8,9']</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>['Fabuloso']</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>['11 comentarios']</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G314" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Guatape Town Apartment</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>COP 290.000</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>['9,5']</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>['28 comentarios']</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G315" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Casa de verano en Guatapé</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>COP 1.120.000</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G316" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Finca Isla El Paraiso</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>COP 1.400.000</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>['3 comentarios']</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G317" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Finca-Hotel Montecarlo by Hope</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>COP 1.100.000</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>['1 comentario']</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G318" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>TEMPO NATURALE</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>COP 920.000</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G319" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Cardinal Glamping</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>COP 598.000</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>['9,8']</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>['29 comentarios']</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G320" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>La Casa de Piedra</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>COP 690.000</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>['9,3']</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>['35 comentarios']</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G321" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>PIA COLOMBIA</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>COP 315.000</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>['1 comentario']</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G322" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Cabañas con represa y glamping peñol y Guatapé - Cabaña 1</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>COP 576.000</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>['8,3']</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>['Muy bien']</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>['22 comentarios']</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G323" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>La Villa, Espectaculares vistas al lago Peñol-Guatape</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>COP 600.000</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>['Excepcional']</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>['5 comentarios']</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G324" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>CASA DE CAMPO MONTECARLO Guatape- desayuno a pareja</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>COP 630.000</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>['9,4']</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>['Fantástico']</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>['23 comentarios']</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G325" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>GUATAPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Finca Cristales</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>COP 2.400.000</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>https://www.booking.com/searchresults.es.html?checkin=2023-05-23&amp;checkout=2023-05-24&amp;selected_currency=COP&amp;ss=GUATAPE&amp;ssne=GUATAPE&amp;ssne_untouched=GUATAPE&amp;lang=es&amp;sb=1&amp;src_elem=sb&amp;src=searchresults&amp;dest_type=city&amp;group_adults=1&amp;no_rooms=1&amp;group_children=0&amp;sb_travel_purpose=leisure&amp;offset=175</t>
+        </is>
+      </c>
+      <c r="G326" s="3" t="n">
+        <v>45049</v>
+      </c>
+      <c r="H326" t="inlineStr">
         <is>
           <t>GUATAPE</t>
         </is>
